--- a/documents/docs/NIEM 5.0 NDR Scope.xlsx
+++ b/documents/docs/NIEM 5.0 NDR Scope.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jim.cabral\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://infotrackus.sharepoint.com/sites/CourtIntegration/Shared Documents/Engineering/Industry Standards/NIEM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA5FA788-CAA4-4A69-91CB-1EF8596B5535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{CA5FA788-CAA4-4A69-91CB-1EF8596B5535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E54EAEEE-13E8-4794-A46D-8034C864A58B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9800F619-76A0-4E04-AE85-201413CF420C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9800F619-76A0-4E04-AE85-201413CF420C}"/>
   </bookViews>
   <sheets>
     <sheet name="Principles" sheetId="1" r:id="rId1"/>
@@ -2094,18 +2094,18 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="141" zoomScaleNormal="141" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="1"/>
-    <col min="2" max="2" width="52.5703125" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" customWidth="1"/>
-    <col min="4" max="9" width="9.140625" style="2"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="52.5546875" customWidth="1"/>
+    <col min="3" max="3" width="7.5546875" customWidth="1"/>
+    <col min="4" max="9" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D1" s="3" t="s">
         <v>560</v>
       </c>
@@ -2113,7 +2113,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2136,7 +2136,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>17</v>
       </c>
@@ -2164,7 +2164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>24</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>22</v>
       </c>
@@ -2220,7 +2220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>21</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>29</v>
       </c>
@@ -2276,7 +2276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2304,7 +2304,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>27</v>
       </c>
@@ -2332,7 +2332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>12</v>
       </c>
@@ -2360,7 +2360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>16</v>
       </c>
@@ -2388,7 +2388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>19</v>
       </c>
@@ -2416,20 +2416,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C13">
         <f>COUNTIF(Rules!$D$3:$D$262,$B13)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13">
         <f>COUNTIFS(Rules!$D$3:$D$262,$B13,Rules!E$3:E$262,Principles!D$2)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E13">
         <f>COUNTIFS(Rules!$D$3:$D$262,$B13,Rules!F$3:F$262,Principles!E$2)</f>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>14</v>
       </c>
@@ -2472,7 +2472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>5</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>10</v>
       </c>
@@ -2528,7 +2528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>20</v>
       </c>
@@ -2556,7 +2556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>28</v>
       </c>
@@ -2584,12 +2584,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C19">
         <f>COUNTIF(Rules!$D$3:$D$262,$B19)</f>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="D19">
         <f>COUNTIFS(Rules!$D$3:$D$262,$B19,Rules!E$3:E$262,Principles!D$2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19">
         <f>COUNTIFS(Rules!$D$3:$D$262,$B19,Rules!F$3:F$262,Principles!E$2)</f>
@@ -2609,19 +2609,19 @@
       </c>
       <c r="G19">
         <f>COUNTIFS(Rules!$D$3:$D$262,$B19,Rules!H$3:H$262,Principles!G$2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C20">
         <f>COUNTIF(Rules!$D$3:$D$262,$B20)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20">
         <f>COUNTIFS(Rules!$D$3:$D$262,$B20,Rules!E$3:E$262,Principles!D$2)</f>
@@ -2637,15 +2637,15 @@
       </c>
       <c r="G20">
         <f>COUNTIFS(Rules!$D$3:$D$262,$B20,Rules!H$3:H$262,Principles!G$2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21">
         <f>COUNTIF(Rules!$D$3:$D$262,$B21)</f>
@@ -2668,12 +2668,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C22">
         <f>COUNTIF(Rules!$D$3:$D$262,$B22)</f>
@@ -2696,12 +2696,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
         <v>4</v>
-      </c>
-      <c r="B23" t="s">
-        <v>5</v>
       </c>
       <c r="C23">
         <f>COUNTIF(Rules!$D$3:$D$262,$B23)</f>
@@ -2724,12 +2724,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C24">
         <f>COUNTIF(Rules!$D$3:$D$262,$B24)</f>
@@ -2752,12 +2752,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C25">
         <f>COUNTIF(Rules!$D$3:$D$262,$B25)</f>
@@ -2780,12 +2780,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
         <v>9</v>
-      </c>
-      <c r="B26" t="s">
-        <v>10</v>
       </c>
       <c r="C26">
         <f>COUNTIF(Rules!$D$3:$D$262,$B26)</f>
@@ -2808,12 +2808,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C27">
         <f>COUNTIF(Rules!$D$3:$D$262,$B27)</f>
@@ -2836,7 +2836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>13</v>
       </c>
@@ -2864,7 +2864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>18</v>
       </c>
@@ -2892,7 +2892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>25</v>
       </c>
@@ -2920,7 +2920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>26</v>
       </c>
@@ -2948,7 +2948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C32">
         <f>SUM(C3:C31)</f>
         <v>260</v>
@@ -3010,18 +3010,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF2C384A-BC10-4A72-9BC4-8530FB7EC620}">
   <dimension ref="A1:H263"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C137" sqref="C137"/>
+    <sheetView topLeftCell="B30" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="3" max="3" width="58.5703125" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" customWidth="1"/>
+    <col min="3" max="3" width="58.5546875" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E1" s="4" t="s">
         <v>560</v>
       </c>
@@ -3029,7 +3029,7 @@
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -3055,7 +3055,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>30</v>
       </c>
@@ -3072,7 +3072,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="2" t="s">
         <v>44</v>
@@ -3087,7 +3087,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="2" t="s">
         <v>45</v>
@@ -3105,7 +3105,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="2" t="s">
         <v>46</v>
@@ -3123,7 +3123,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="2" t="s">
         <v>47</v>
@@ -3138,7 +3138,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="2" t="s">
         <v>48</v>
@@ -3153,7 +3153,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
@@ -3170,7 +3170,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>32</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="2" t="s">
         <v>51</v>
@@ -3214,7 +3214,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="2" t="s">
         <v>52</v>
@@ -3232,7 +3232,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="2" t="s">
         <v>53</v>
@@ -3250,7 +3250,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="2" t="s">
         <v>54</v>
@@ -3268,7 +3268,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>33</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="2" t="s">
         <v>56</v>
@@ -3306,7 +3306,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="2" t="s">
         <v>57</v>
@@ -3324,7 +3324,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="2" t="s">
         <v>58</v>
@@ -3342,7 +3342,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="2" t="s">
         <v>59</v>
@@ -3360,7 +3360,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="2" t="s">
         <v>60</v>
@@ -3378,7 +3378,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="2" t="s">
         <v>61</v>
@@ -3396,7 +3396,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="2" t="s">
         <v>62</v>
@@ -3414,7 +3414,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="2" t="s">
         <v>63</v>
@@ -3432,7 +3432,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="2" t="s">
         <v>38</v>
@@ -3441,7 +3441,7 @@
         <v>321</v>
       </c>
       <c r="D24" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E24" t="s">
         <v>547</v>
@@ -3450,7 +3450,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="2" t="s">
         <v>39</v>
@@ -3465,7 +3465,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="2" t="s">
         <v>40</v>
@@ -3483,7 +3483,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="2" t="s">
         <v>41</v>
@@ -3498,7 +3498,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="2" t="s">
         <v>42</v>
@@ -3516,7 +3516,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="2" t="s">
         <v>64</v>
@@ -3534,7 +3534,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
       <c r="B30" s="2" t="s">
         <v>65</v>
@@ -3552,7 +3552,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
       <c r="B31" s="2" t="s">
         <v>66</v>
@@ -3570,7 +3570,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="5"/>
       <c r="B32" s="2" t="s">
         <v>67</v>
@@ -3588,7 +3588,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
       <c r="B33" s="2" t="s">
         <v>68</v>
@@ -3606,7 +3606,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="5"/>
       <c r="B34" s="2" t="s">
         <v>69</v>
@@ -3624,7 +3624,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
       <c r="B35" s="2" t="s">
         <v>70</v>
@@ -3642,7 +3642,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="5"/>
       <c r="B36" s="2" t="s">
         <v>71</v>
@@ -3660,7 +3660,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
       <c r="B37" s="2" t="s">
         <v>72</v>
@@ -3678,7 +3678,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="5"/>
       <c r="B38" s="2" t="s">
         <v>73</v>
@@ -3696,7 +3696,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
       <c r="B39" s="2" t="s">
         <v>74</v>
@@ -3705,7 +3705,7 @@
         <v>336</v>
       </c>
       <c r="D39" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E39" t="s">
         <v>547</v>
@@ -3714,7 +3714,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
       <c r="B40" s="2" t="s">
         <v>75</v>
@@ -3732,7 +3732,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
       <c r="B41" s="2" t="s">
         <v>76</v>
@@ -3750,7 +3750,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="2" t="s">
         <v>77</v>
@@ -3768,7 +3768,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
       <c r="B43" s="2" t="s">
         <v>78</v>
@@ -3786,7 +3786,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
       <c r="B44" s="2" t="s">
         <v>79</v>
@@ -3801,7 +3801,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="5"/>
       <c r="B45" s="2" t="s">
         <v>80</v>
@@ -3819,7 +3819,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
       <c r="B46" s="2" t="s">
         <v>81</v>
@@ -3834,7 +3834,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="5"/>
       <c r="B47" s="2" t="s">
         <v>82</v>
@@ -3849,7 +3849,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
       <c r="B48" s="2" t="s">
         <v>83</v>
@@ -3864,7 +3864,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
       <c r="B49" s="2" t="s">
         <v>84</v>
@@ -3879,7 +3879,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="5"/>
       <c r="B50" s="2" t="s">
         <v>85</v>
@@ -3888,7 +3888,7 @@
         <v>346</v>
       </c>
       <c r="D50" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E50" t="s">
         <v>547</v>
@@ -3897,7 +3897,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="5"/>
       <c r="B51" s="2" t="s">
         <v>86</v>
@@ -3915,7 +3915,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="5"/>
       <c r="B52" s="2" t="s">
         <v>87</v>
@@ -3933,7 +3933,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="5"/>
       <c r="B53" s="2" t="s">
         <v>88</v>
@@ -3951,7 +3951,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="5"/>
       <c r="B54" s="2" t="s">
         <v>89</v>
@@ -3969,7 +3969,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="5"/>
       <c r="B55" s="2" t="s">
         <v>90</v>
@@ -3987,7 +3987,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="5"/>
       <c r="B56" s="2" t="s">
         <v>91</v>
@@ -4005,7 +4005,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="5"/>
       <c r="B57" s="2" t="s">
         <v>92</v>
@@ -4020,7 +4020,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="5"/>
       <c r="B58" s="2" t="s">
         <v>93</v>
@@ -4035,7 +4035,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="5"/>
       <c r="B59" s="2" t="s">
         <v>94</v>
@@ -4053,7 +4053,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="5"/>
       <c r="B60" s="2" t="s">
         <v>95</v>
@@ -4071,7 +4071,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="5"/>
       <c r="B61" s="2" t="s">
         <v>96</v>
@@ -4086,7 +4086,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="5"/>
       <c r="B62" s="2" t="s">
         <v>97</v>
@@ -4095,7 +4095,7 @@
         <v>358</v>
       </c>
       <c r="D62" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E62" t="s">
         <v>547</v>
@@ -4104,7 +4104,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="5"/>
       <c r="B63" s="2" t="s">
         <v>98</v>
@@ -4122,7 +4122,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="5"/>
       <c r="B64" s="2" t="s">
         <v>99</v>
@@ -4140,7 +4140,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="5"/>
       <c r="B65" s="2" t="s">
         <v>100</v>
@@ -4158,7 +4158,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="5"/>
       <c r="B66" s="2" t="s">
         <v>101</v>
@@ -4176,7 +4176,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="5"/>
       <c r="B67" s="2" t="s">
         <v>102</v>
@@ -4194,7 +4194,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="5"/>
       <c r="B68" s="2" t="s">
         <v>103</v>
@@ -4212,7 +4212,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="5"/>
       <c r="B69" s="2" t="s">
         <v>104</v>
@@ -4230,7 +4230,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="5"/>
       <c r="B70" s="2" t="s">
         <v>105</v>
@@ -4248,7 +4248,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="5"/>
       <c r="B71" s="2" t="s">
         <v>106</v>
@@ -4266,7 +4266,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="5"/>
       <c r="B72" s="2" t="s">
         <v>107</v>
@@ -4284,7 +4284,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="5"/>
       <c r="B73" s="2" t="s">
         <v>108</v>
@@ -4302,7 +4302,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="5"/>
       <c r="B74" s="2" t="s">
         <v>109</v>
@@ -4317,7 +4317,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="5"/>
       <c r="B75" s="2" t="s">
         <v>110</v>
@@ -4332,7 +4332,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="5"/>
       <c r="B76" s="2" t="s">
         <v>111</v>
@@ -4347,7 +4347,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="5"/>
       <c r="B77" s="2" t="s">
         <v>112</v>
@@ -4362,7 +4362,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="5"/>
       <c r="B78" s="2" t="s">
         <v>113</v>
@@ -4377,7 +4377,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="5"/>
       <c r="B79" s="2" t="s">
         <v>114</v>
@@ -4392,7 +4392,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="5"/>
       <c r="B80" s="2" t="s">
         <v>115</v>
@@ -4410,7 +4410,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="5"/>
       <c r="B81" s="2" t="s">
         <v>116</v>
@@ -4428,7 +4428,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="5"/>
       <c r="B82" s="2" t="s">
         <v>117</v>
@@ -4443,7 +4443,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="5"/>
       <c r="B83" s="2" t="s">
         <v>118</v>
@@ -4458,7 +4458,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="5"/>
       <c r="B84" s="2" t="s">
         <v>119</v>
@@ -4473,7 +4473,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="5"/>
       <c r="B85" s="2" t="s">
         <v>120</v>
@@ -4488,7 +4488,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="5"/>
       <c r="B86" s="2" t="s">
         <v>121</v>
@@ -4506,7 +4506,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="5"/>
       <c r="B87" s="2" t="s">
         <v>122</v>
@@ -4524,7 +4524,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="5"/>
       <c r="B88" s="2" t="s">
         <v>123</v>
@@ -4542,7 +4542,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="5"/>
       <c r="B89" s="2" t="s">
         <v>124</v>
@@ -4560,7 +4560,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="5"/>
       <c r="B90" s="2" t="s">
         <v>125</v>
@@ -4578,7 +4578,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="5"/>
       <c r="B91" s="2" t="s">
         <v>126</v>
@@ -4596,7 +4596,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="5"/>
       <c r="B92" s="2" t="s">
         <v>127</v>
@@ -4614,7 +4614,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="5"/>
       <c r="B93" s="2" t="s">
         <v>128</v>
@@ -4632,7 +4632,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="5"/>
       <c r="B94" s="2" t="s">
         <v>129</v>
@@ -4650,7 +4650,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="5"/>
       <c r="B95" s="2" t="s">
         <v>130</v>
@@ -4668,7 +4668,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="5"/>
       <c r="B96" s="2" t="s">
         <v>131</v>
@@ -4686,7 +4686,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="5"/>
       <c r="B97" s="2" t="s">
         <v>132</v>
@@ -4704,7 +4704,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="5"/>
       <c r="B98" s="2" t="s">
         <v>133</v>
@@ -4722,7 +4722,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="5"/>
       <c r="B99" s="2" t="s">
         <v>134</v>
@@ -4740,7 +4740,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="5"/>
       <c r="B100" s="2" t="s">
         <v>135</v>
@@ -4755,7 +4755,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="5"/>
       <c r="B101" s="2" t="s">
         <v>136</v>
@@ -4770,7 +4770,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="5"/>
       <c r="B102" s="2" t="s">
         <v>137</v>
@@ -4788,7 +4788,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="5"/>
       <c r="B103" s="2" t="s">
         <v>138</v>
@@ -4806,7 +4806,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="5"/>
       <c r="B104" s="2" t="s">
         <v>139</v>
@@ -4824,7 +4824,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="5"/>
       <c r="B105" s="2" t="s">
         <v>140</v>
@@ -4839,7 +4839,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="5"/>
       <c r="B106" s="2" t="s">
         <v>141</v>
@@ -4857,7 +4857,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="5"/>
       <c r="B107" s="2" t="s">
         <v>142</v>
@@ -4875,7 +4875,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="5"/>
       <c r="B108" s="2" t="s">
         <v>143</v>
@@ -4893,7 +4893,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="5"/>
       <c r="B109" s="2" t="s">
         <v>144</v>
@@ -4911,7 +4911,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="5"/>
       <c r="B110" s="2" t="s">
         <v>145</v>
@@ -4929,7 +4929,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="5"/>
       <c r="B111" s="2" t="s">
         <v>146</v>
@@ -4947,7 +4947,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="5" t="s">
         <v>34</v>
       </c>
@@ -4967,7 +4967,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="5"/>
       <c r="B113" s="2" t="s">
         <v>148</v>
@@ -4985,7 +4985,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="5"/>
       <c r="B114" s="2" t="s">
         <v>149</v>
@@ -5003,7 +5003,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="5"/>
       <c r="B115" s="2" t="s">
         <v>150</v>
@@ -5021,7 +5021,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="5"/>
       <c r="B116" s="2" t="s">
         <v>151</v>
@@ -5042,7 +5042,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="5"/>
       <c r="B117" s="2" t="s">
         <v>152</v>
@@ -5057,7 +5057,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="5"/>
       <c r="B118" s="2" t="s">
         <v>153</v>
@@ -5075,7 +5075,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="5"/>
       <c r="B119" s="2" t="s">
         <v>154</v>
@@ -5093,7 +5093,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="5"/>
       <c r="B120" s="2" t="s">
         <v>155</v>
@@ -5111,7 +5111,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="5"/>
       <c r="B121" s="2" t="s">
         <v>156</v>
@@ -5129,7 +5129,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="5"/>
       <c r="B122" s="2" t="s">
         <v>157</v>
@@ -5147,7 +5147,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="5"/>
       <c r="B123" s="2" t="s">
         <v>158</v>
@@ -5162,7 +5162,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="5"/>
       <c r="B124" s="2" t="s">
         <v>159</v>
@@ -5177,7 +5177,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="5"/>
       <c r="B125" s="2" t="s">
         <v>160</v>
@@ -5195,7 +5195,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="5"/>
       <c r="B126" s="2" t="s">
         <v>161</v>
@@ -5210,7 +5210,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="5"/>
       <c r="B127" s="2" t="s">
         <v>162</v>
@@ -5228,7 +5228,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="5"/>
       <c r="B128" s="2" t="s">
         <v>163</v>
@@ -5246,7 +5246,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="5"/>
       <c r="B129" s="2" t="s">
         <v>164</v>
@@ -5264,7 +5264,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="5"/>
       <c r="B130" s="2" t="s">
         <v>165</v>
@@ -5282,7 +5282,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="5"/>
       <c r="B131" s="2" t="s">
         <v>166</v>
@@ -5300,7 +5300,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="5"/>
       <c r="B132" s="2" t="s">
         <v>167</v>
@@ -5318,7 +5318,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="5"/>
       <c r="B133" s="2" t="s">
         <v>168</v>
@@ -5336,7 +5336,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="5"/>
       <c r="B134" s="2" t="s">
         <v>169</v>
@@ -5351,7 +5351,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="5"/>
       <c r="B135" s="2" t="s">
         <v>170</v>
@@ -5369,7 +5369,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="5"/>
       <c r="B136" s="2" t="s">
         <v>171</v>
@@ -5387,7 +5387,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="5"/>
       <c r="B137" s="2" t="s">
         <v>172</v>
@@ -5405,7 +5405,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="5"/>
       <c r="B138" s="2" t="s">
         <v>173</v>
@@ -5423,7 +5423,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="5"/>
       <c r="B139" s="2" t="s">
         <v>174</v>
@@ -5441,7 +5441,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="5"/>
       <c r="B140" s="2" t="s">
         <v>175</v>
@@ -5456,7 +5456,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="5"/>
       <c r="B141" s="2" t="s">
         <v>176</v>
@@ -5471,7 +5471,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="5"/>
       <c r="B142" s="2" t="s">
         <v>177</v>
@@ -5489,7 +5489,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="5"/>
       <c r="B143" s="2" t="s">
         <v>178</v>
@@ -5504,7 +5504,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="5"/>
       <c r="B144" s="2" t="s">
         <v>179</v>
@@ -5522,7 +5522,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="5"/>
       <c r="B145" s="2" t="s">
         <v>180</v>
@@ -5540,7 +5540,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="5"/>
       <c r="B146" s="2" t="s">
         <v>181</v>
@@ -5558,7 +5558,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="5"/>
       <c r="B147" s="2" t="s">
         <v>182</v>
@@ -5576,7 +5576,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="5"/>
       <c r="B148" s="2" t="s">
         <v>183</v>
@@ -5594,7 +5594,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="5"/>
       <c r="B149" s="2" t="s">
         <v>184</v>
@@ -5612,7 +5612,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="5"/>
       <c r="B150" s="2" t="s">
         <v>185</v>
@@ -5630,7 +5630,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="5"/>
       <c r="B151" s="2" t="s">
         <v>186</v>
@@ -5648,7 +5648,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="5"/>
       <c r="B152" s="2" t="s">
         <v>187</v>
@@ -5669,7 +5669,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="5"/>
       <c r="B153" s="2" t="s">
         <v>188</v>
@@ -5687,7 +5687,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="5"/>
       <c r="B154" s="2" t="s">
         <v>189</v>
@@ -5705,7 +5705,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="5"/>
       <c r="B155" s="2" t="s">
         <v>190</v>
@@ -5723,7 +5723,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="5"/>
       <c r="B156" s="2" t="s">
         <v>191</v>
@@ -5741,7 +5741,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="5"/>
       <c r="B157" s="2" t="s">
         <v>192</v>
@@ -5759,7 +5759,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="5"/>
       <c r="B158" s="2" t="s">
         <v>193</v>
@@ -5777,7 +5777,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="5"/>
       <c r="B159" s="2" t="s">
         <v>194</v>
@@ -5795,7 +5795,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="5"/>
       <c r="B160" s="2" t="s">
         <v>195</v>
@@ -5813,7 +5813,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="5"/>
       <c r="B161" s="2" t="s">
         <v>196</v>
@@ -5831,7 +5831,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="5"/>
       <c r="B162" s="2" t="s">
         <v>197</v>
@@ -5849,7 +5849,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="5"/>
       <c r="B163" s="2" t="s">
         <v>198</v>
@@ -5867,7 +5867,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="5"/>
       <c r="B164" s="2" t="s">
         <v>199</v>
@@ -5885,7 +5885,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="5"/>
       <c r="B165" s="2" t="s">
         <v>200</v>
@@ -5903,7 +5903,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="5"/>
       <c r="B166" s="2" t="s">
         <v>201</v>
@@ -5921,7 +5921,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="5"/>
       <c r="B167" s="2" t="s">
         <v>202</v>
@@ -5939,7 +5939,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="5"/>
       <c r="B168" s="2" t="s">
         <v>203</v>
@@ -5957,7 +5957,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="5"/>
       <c r="B169" s="2" t="s">
         <v>204</v>
@@ -5975,7 +5975,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="5"/>
       <c r="B170" s="2" t="s">
         <v>205</v>
@@ -5993,7 +5993,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="5"/>
       <c r="B171" s="2" t="s">
         <v>206</v>
@@ -6011,7 +6011,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="5"/>
       <c r="B172" s="2" t="s">
         <v>207</v>
@@ -6029,7 +6029,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="5"/>
       <c r="B173" s="2" t="s">
         <v>208</v>
@@ -6047,7 +6047,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="5"/>
       <c r="B174" s="2" t="s">
         <v>209</v>
@@ -6065,7 +6065,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="5"/>
       <c r="B175" s="2" t="s">
         <v>210</v>
@@ -6083,7 +6083,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="5"/>
       <c r="B176" s="2" t="s">
         <v>211</v>
@@ -6101,7 +6101,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="5"/>
       <c r="B177" s="2" t="s">
         <v>212</v>
@@ -6119,7 +6119,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="5"/>
       <c r="B178" s="2" t="s">
         <v>213</v>
@@ -6137,7 +6137,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="5"/>
       <c r="B179" s="2" t="s">
         <v>214</v>
@@ -6155,7 +6155,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="5"/>
       <c r="B180" s="2" t="s">
         <v>215</v>
@@ -6173,7 +6173,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="5"/>
       <c r="B181" s="2" t="s">
         <v>216</v>
@@ -6191,7 +6191,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="5"/>
       <c r="B182" s="2" t="s">
         <v>217</v>
@@ -6209,7 +6209,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="5"/>
       <c r="B183" s="2" t="s">
         <v>218</v>
@@ -6227,7 +6227,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="5"/>
       <c r="B184" s="2" t="s">
         <v>219</v>
@@ -6242,7 +6242,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="5"/>
       <c r="B185" s="2" t="s">
         <v>220</v>
@@ -6260,7 +6260,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="5"/>
       <c r="B186" s="2" t="s">
         <v>221</v>
@@ -6275,7 +6275,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="5"/>
       <c r="B187" s="2" t="s">
         <v>222</v>
@@ -6293,7 +6293,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="5"/>
       <c r="B188" s="2" t="s">
         <v>223</v>
@@ -6311,7 +6311,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="5"/>
       <c r="B189" s="2" t="s">
         <v>224</v>
@@ -6332,7 +6332,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="190" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="5" t="s">
         <v>35</v>
       </c>
@@ -6352,7 +6352,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="5"/>
       <c r="B191" s="2" t="s">
         <v>226</v>
@@ -6370,7 +6370,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="5"/>
       <c r="B192" s="2" t="s">
         <v>227</v>
@@ -6388,7 +6388,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" s="5"/>
       <c r="B193" s="2" t="s">
         <v>228</v>
@@ -6406,7 +6406,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" s="5"/>
       <c r="B194" s="2" t="s">
         <v>229</v>
@@ -6424,7 +6424,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" s="5"/>
       <c r="B195" s="2" t="s">
         <v>230</v>
@@ -6442,7 +6442,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" s="5"/>
       <c r="B196" s="2" t="s">
         <v>231</v>
@@ -6460,7 +6460,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" s="5"/>
       <c r="B197" s="2" t="s">
         <v>232</v>
@@ -6478,7 +6478,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" s="5"/>
       <c r="B198" s="2" t="s">
         <v>233</v>
@@ -6496,7 +6496,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" s="5"/>
       <c r="B199" s="2" t="s">
         <v>234</v>
@@ -6514,7 +6514,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" s="5"/>
       <c r="B200" s="2" t="s">
         <v>235</v>
@@ -6532,7 +6532,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" s="5"/>
       <c r="B201" s="2" t="s">
         <v>236</v>
@@ -6550,7 +6550,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" s="5"/>
       <c r="B202" s="2" t="s">
         <v>237</v>
@@ -6568,7 +6568,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" s="5"/>
       <c r="B203" s="2" t="s">
         <v>238</v>
@@ -6586,7 +6586,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" s="5"/>
       <c r="B204" s="2" t="s">
         <v>239</v>
@@ -6604,7 +6604,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" s="5"/>
       <c r="B205" s="2" t="s">
         <v>240</v>
@@ -6619,7 +6619,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" s="5"/>
       <c r="B206" s="2" t="s">
         <v>241</v>
@@ -6637,7 +6637,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" s="5"/>
       <c r="B207" s="2" t="s">
         <v>242</v>
@@ -6655,7 +6655,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" s="5"/>
       <c r="B208" s="2" t="s">
         <v>243</v>
@@ -6673,7 +6673,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="5"/>
       <c r="B209" s="2" t="s">
         <v>244</v>
@@ -6691,7 +6691,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="5"/>
       <c r="B210" s="2" t="s">
         <v>245</v>
@@ -6709,7 +6709,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="5"/>
       <c r="B211" s="2" t="s">
         <v>246</v>
@@ -6727,7 +6727,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="5"/>
       <c r="B212" s="2" t="s">
         <v>247</v>
@@ -6745,7 +6745,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" s="5"/>
       <c r="B213" s="2" t="s">
         <v>248</v>
@@ -6763,7 +6763,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" s="5"/>
       <c r="B214" s="2" t="s">
         <v>249</v>
@@ -6781,7 +6781,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" s="5"/>
       <c r="B215" s="2" t="s">
         <v>250</v>
@@ -6799,7 +6799,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" s="5"/>
       <c r="B216" s="2" t="s">
         <v>251</v>
@@ -6817,7 +6817,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" s="5"/>
       <c r="B217" s="2" t="s">
         <v>252</v>
@@ -6835,7 +6835,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" s="5"/>
       <c r="B218" s="2" t="s">
         <v>253</v>
@@ -6853,7 +6853,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" s="5"/>
       <c r="B219" s="2" t="s">
         <v>254</v>
@@ -6865,7 +6865,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="5"/>
       <c r="B220" s="2" t="s">
         <v>255</v>
@@ -6883,7 +6883,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" s="5"/>
       <c r="B221" s="2" t="s">
         <v>256</v>
@@ -6901,7 +6901,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" s="5"/>
       <c r="B222" s="2" t="s">
         <v>257</v>
@@ -6919,7 +6919,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="5"/>
       <c r="B223" s="2" t="s">
         <v>258</v>
@@ -6937,7 +6937,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" s="5"/>
       <c r="B224" s="2" t="s">
         <v>259</v>
@@ -6955,7 +6955,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" s="5"/>
       <c r="B225" s="2" t="s">
         <v>260</v>
@@ -6973,7 +6973,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" s="5"/>
       <c r="B226" s="2" t="s">
         <v>261</v>
@@ -6991,7 +6991,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" s="5"/>
       <c r="B227" s="2" t="s">
         <v>262</v>
@@ -7009,7 +7009,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" s="5"/>
       <c r="B228" s="2" t="s">
         <v>263</v>
@@ -7027,7 +7027,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" s="5"/>
       <c r="B229" s="2" t="s">
         <v>264</v>
@@ -7045,7 +7045,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" s="5"/>
       <c r="B230" s="2" t="s">
         <v>265</v>
@@ -7063,7 +7063,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" s="5"/>
       <c r="B231" s="2" t="s">
         <v>266</v>
@@ -7081,7 +7081,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" s="5"/>
       <c r="B232" s="2" t="s">
         <v>267</v>
@@ -7099,7 +7099,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" s="5"/>
       <c r="B233" s="2" t="s">
         <v>268</v>
@@ -7117,7 +7117,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" s="5"/>
       <c r="B234" s="2" t="s">
         <v>269</v>
@@ -7135,7 +7135,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" s="5"/>
       <c r="B235" s="2" t="s">
         <v>270</v>
@@ -7153,7 +7153,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" s="5"/>
       <c r="B236" s="2" t="s">
         <v>271</v>
@@ -7171,7 +7171,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" s="5"/>
       <c r="B237" s="2" t="s">
         <v>272</v>
@@ -7189,7 +7189,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" s="5"/>
       <c r="B238" s="2" t="s">
         <v>273</v>
@@ -7207,7 +7207,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" s="5"/>
       <c r="B239" s="2" t="s">
         <v>274</v>
@@ -7222,7 +7222,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" s="5"/>
       <c r="B240" s="2" t="s">
         <v>275</v>
@@ -7237,7 +7237,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" s="5"/>
       <c r="B241" s="2" t="s">
         <v>276</v>
@@ -7255,7 +7255,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" s="5"/>
       <c r="B242" s="2" t="s">
         <v>277</v>
@@ -7273,7 +7273,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" s="5"/>
       <c r="B243" s="2" t="s">
         <v>278</v>
@@ -7288,7 +7288,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" s="5"/>
       <c r="B244" s="2" t="s">
         <v>279</v>
@@ -7306,7 +7306,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="245" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="5" t="s">
         <v>36</v>
       </c>
@@ -7323,7 +7323,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" s="5"/>
       <c r="B246" s="2" t="s">
         <v>281</v>
@@ -7338,7 +7338,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" s="5"/>
       <c r="B247" s="2" t="s">
         <v>282</v>
@@ -7353,7 +7353,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" s="5"/>
       <c r="B248" s="2" t="s">
         <v>283</v>
@@ -7368,7 +7368,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" s="5"/>
       <c r="B249" s="2" t="s">
         <v>284</v>
@@ -7383,7 +7383,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" s="5"/>
       <c r="B250" s="2" t="s">
         <v>285</v>
@@ -7398,7 +7398,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" s="5"/>
       <c r="B251" s="2" t="s">
         <v>286</v>
@@ -7413,7 +7413,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" s="5"/>
       <c r="B252" s="2" t="s">
         <v>287</v>
@@ -7428,7 +7428,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" s="5"/>
       <c r="B253" s="2" t="s">
         <v>288</v>
@@ -7443,7 +7443,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" s="5"/>
       <c r="B254" s="2" t="s">
         <v>289</v>
@@ -7458,7 +7458,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" s="5"/>
       <c r="B255" s="2" t="s">
         <v>290</v>
@@ -7473,7 +7473,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" s="5"/>
       <c r="B256" s="2" t="s">
         <v>291</v>
@@ -7488,7 +7488,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" s="5"/>
       <c r="B257" s="2" t="s">
         <v>292</v>
@@ -7503,7 +7503,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" s="5"/>
       <c r="B258" s="2" t="s">
         <v>293</v>
@@ -7518,7 +7518,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259" s="5"/>
       <c r="B259" s="2" t="s">
         <v>294</v>
@@ -7533,7 +7533,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" s="5"/>
       <c r="B260" s="2" t="s">
         <v>295</v>
@@ -7548,7 +7548,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" s="5"/>
       <c r="B261" s="2" t="s">
         <v>296</v>
@@ -7563,7 +7563,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" s="5"/>
       <c r="B262" s="2" t="s">
         <v>297</v>
@@ -7578,7 +7578,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E263">
         <f>COUNTA(E3:E262)</f>
         <v>220</v>
@@ -7613,6 +7613,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E68E0DA791DDE944A6BF9A77155D2B8B" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4913838eef4eefff8f100f92c48811c6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8ac5beac-f1c0-4c7b-af2d-aebe52671338" xmlns:ns3="d61be291-e2fa-4255-9b44-bdded913a70a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="638d10dab62bc73daaa7c5604c20fd43" ns2:_="" ns3:_="">
     <xsd:import namespace="8ac5beac-f1c0-4c7b-af2d-aebe52671338"/>
@@ -7839,19 +7848,29 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0363A1EE-1E27-4AE9-8DB2-F741BA252141}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBB7A06B-68A5-420D-8964-1F86F3993247}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBB7A06B-68A5-420D-8964-1F86F3993247}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0363A1EE-1E27-4AE9-8DB2-F741BA252141}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8ac5beac-f1c0-4c7b-af2d-aebe52671338"/>
+    <ds:schemaRef ds:uri="d61be291-e2fa-4255-9b44-bdded913a70a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>